--- a/i18n/excel/adas.dss.xlsx
+++ b/i18n/excel/adas.dss.xlsx
@@ -2492,7 +2492,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2503,6 +2503,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -2547,7 +2553,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2564,6 +2570,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2577,6 +2591,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -2588,7 +2662,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B:B A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2646,10 +2720,13 @@
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B:B A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="65.99"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -3302,7 +3379,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B:B A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3710,7 +3787,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B:B A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4305,13 +4382,16 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="106.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="52.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="82.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="38.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4331,7 +4411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="108.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>382</v>
       </c>
@@ -4471,7 +4551,7 @@
       <c r="A10" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>408</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -4488,7 +4568,7 @@
       <c r="A11" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>413</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -4744,7 +4824,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B:B A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5162,7 +5242,7 @@
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B:B A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5732,14 +5812,17 @@
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="1" sqref="B:B A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="89.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="55.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="41.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="38.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="40.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5759,20 +5842,20 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="124.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>660</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>662</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>664</v>
       </c>
     </row>
@@ -5967,7 +6050,7 @@
       <c r="A14" s="3" t="s">
         <v>708</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>709</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -6048,7 +6131,7 @@
       <c r="A23" s="3" t="s">
         <v>721</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>235</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -6065,7 +6148,7 @@
       <c r="A24" s="3" t="s">
         <v>723</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>724</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -6082,7 +6165,7 @@
       <c r="A25" s="3" t="s">
         <v>728</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>167</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -6099,7 +6182,7 @@
       <c r="A26" s="3" t="s">
         <v>732</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>733</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -6116,7 +6199,7 @@
       <c r="A27" s="3" t="s">
         <v>737</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>738</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -6133,7 +6216,7 @@
       <c r="A28" s="3" t="s">
         <v>741</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>742</v>
       </c>
       <c r="C28" s="3" t="s">
